--- a/Inventory CSVs/TRUE BOM.xlsx
+++ b/Inventory CSVs/TRUE BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Exlterra CAD 02\Documents\GitHub\pjbrich.github.io\Inventory CSVs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BFE252A-9D75-4605-943F-F808E20CC793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AC3151-6859-42F0-B3B8-EC2866700703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{A4F45E7A-80B9-489A-ADC9-B093947A0154}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A4F45E7A-80B9-489A-ADC9-B093947A0154}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="125">
   <si>
     <t>Part Description</t>
   </si>
@@ -176,9 +176,6 @@
     <t>XLT915-0N0006-0-A001</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>6400-12-10</t>
   </si>
   <si>
@@ -255,13 +252,173 @@
   </si>
   <si>
     <t>#4 MALE JIC X 1/4" FEMALE PIPE 90 DEGREE ELBOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size 4 JIC Bulkhead Union Elbow </t>
+  </si>
+  <si>
+    <t>2704-16-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Size 16 JIC Bulkhead Run Tee</t>
+  </si>
+  <si>
+    <t>2406-16-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size 16-4 JIC Reducer </t>
+  </si>
+  <si>
+    <t>6602-20-20</t>
+  </si>
+  <si>
+    <t>Size 20 JIC Swivel Run Tee</t>
+  </si>
+  <si>
+    <t>6600-16-16-16</t>
+  </si>
+  <si>
+    <t>Size 16 JIC Swivel Branch Tee</t>
+  </si>
+  <si>
+    <t>2704-20-20-20</t>
+  </si>
+  <si>
+    <t>Size 20 Bulkhead Run Tee</t>
+  </si>
+  <si>
+    <t>2406-20-16</t>
+  </si>
+  <si>
+    <t>Size 20-16 JIC Reducer</t>
+  </si>
+  <si>
+    <t>2406-20-6</t>
+  </si>
+  <si>
+    <t>Size 20-6 JIC Reducer</t>
+  </si>
+  <si>
+    <t>2406-16-12</t>
+  </si>
+  <si>
+    <t>Size 16-12 JIC Reducer</t>
+  </si>
+  <si>
+    <t>6500-4-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size 4-6 JIC Swivel </t>
+  </si>
+  <si>
+    <t>6502-20-20</t>
+  </si>
+  <si>
+    <t>Size 20 JIC Swivel 45 Degree Elbow</t>
+  </si>
+  <si>
+    <t>0318-20</t>
+  </si>
+  <si>
+    <t>0319-20</t>
+  </si>
+  <si>
+    <t>Size 20 JIC Tube Sleeve</t>
+  </si>
+  <si>
+    <t>Size 20 JIC Tube Nut</t>
+  </si>
+  <si>
+    <t>0306-20</t>
+  </si>
+  <si>
+    <t>Size 20 Steel Bulkhead Fitting</t>
+  </si>
+  <si>
+    <t>2701-12-12</t>
+  </si>
+  <si>
+    <t>Size 12 JIC Bulkhead Union</t>
+  </si>
+  <si>
+    <t>Size 12 Steel Bulkhead Fitting</t>
+  </si>
+  <si>
+    <t>0306-12</t>
+  </si>
+  <si>
+    <t>6500-16-16</t>
+  </si>
+  <si>
+    <t>Size 16 JIC Swivel Nut Elbow</t>
+  </si>
+  <si>
+    <t>6500-12-12</t>
+  </si>
+  <si>
+    <t>Size 12 JIC Swivel Nut Elbow</t>
+  </si>
+  <si>
+    <t>2702-12-12</t>
+  </si>
+  <si>
+    <t>Size 12 JIC Bulkhead Union 45 Degree Elbow</t>
+  </si>
+  <si>
+    <t>2704-12-12-12</t>
+  </si>
+  <si>
+    <t>Size 12 JIC Bulkhead Run Tee</t>
+  </si>
+  <si>
+    <t>Size 20 JIC Bulkhead Union</t>
+  </si>
+  <si>
+    <t>2700LN-20-20</t>
+  </si>
+  <si>
+    <t>2500-16-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size 16 JIC Union </t>
+  </si>
+  <si>
+    <t>6802-12-10</t>
+  </si>
+  <si>
+    <t>Size 12-10 JIC To O-Ring 45 Degree Elbow</t>
+  </si>
+  <si>
+    <t>2603-16-16-16</t>
+  </si>
+  <si>
+    <t>Size 16 JIC Union Tee</t>
+  </si>
+  <si>
+    <t>2406-16-6</t>
+  </si>
+  <si>
+    <t>Size 16-6 JIC Reducer</t>
+  </si>
+  <si>
+    <t>2500-20-20</t>
+  </si>
+  <si>
+    <t>Size 20 JIC Union Elbow</t>
+  </si>
+  <si>
+    <t>2603-20-20-20</t>
+  </si>
+  <si>
+    <t>Size 20 JIC Union Tee</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
@@ -273,12 +430,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -293,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -310,6 +473,10 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1630A1A9-63A0-484D-B494-8E184F006C0E}">
-  <dimension ref="A1:F200"/>
+  <dimension ref="A1:G200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,9 +825,10 @@
     <col min="4" max="4" width="20.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -679,8 +847,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -697,8 +868,12 @@
         <f>PRODUCT(C2*D2)</f>
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="7">
+        <f>SUM(E2:E1000)</f>
+        <v>1234.7299999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -716,7 +891,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -734,7 +909,7 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -752,7 +927,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -770,7 +945,7 @@
         <v>7.9799999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -788,7 +963,7 @@
         <v>3.8000000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -806,7 +981,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -824,7 +999,7 @@
         <v>8.42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -842,7 +1017,7 @@
         <v>20.64</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -860,7 +1035,7 @@
         <v>10.56</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -878,7 +1053,7 @@
         <v>8.26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -896,7 +1071,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -914,7 +1089,7 @@
         <v>54.24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -932,7 +1107,7 @@
         <v>5.36</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -1023,47 +1198,47 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>46</v>
+      <c r="C21" s="5">
+        <v>30.13</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
       </c>
-      <c r="E21" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>60.26</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="5">
         <v>1.67</v>
       </c>
       <c r="D22" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="0"/>
-        <v>3.34</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
@@ -1078,10 +1253,10 @@
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
@@ -1096,10 +1271,10 @@
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="1">
         <v>2</v>
@@ -1114,10 +1289,10 @@
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26" s="1">
         <v>2</v>
@@ -1132,10 +1307,10 @@
     </row>
     <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" s="1">
         <v>2</v>
@@ -1150,10 +1325,10 @@
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="1">
         <v>2</v>
@@ -1168,10 +1343,10 @@
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" s="1">
         <v>2</v>
@@ -1185,29 +1360,29 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>64</v>
+      <c r="A30" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" s="1">
         <v>2</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="D30" s="5">
+        <v>13.9</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="0"/>
+        <v>27.8</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" s="1">
         <v>2</v>
@@ -1222,10 +1397,10 @@
     </row>
     <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" s="1">
         <v>5</v>
@@ -1240,10 +1415,10 @@
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" s="1">
         <v>5</v>
@@ -1258,10 +1433,10 @@
     </row>
     <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" s="1">
         <v>3</v>
@@ -1274,181 +1449,505 @@
         <v>16.169999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1.47</v>
+      </c>
       <c r="E35" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2</v>
+      </c>
+      <c r="D36" s="5">
+        <v>50.38</v>
+      </c>
       <c r="E36" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100.76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2</v>
+      </c>
+      <c r="D37" s="5">
+        <v>7.74</v>
+      </c>
       <c r="E37" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15.48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5">
+        <v>19.809999999999999</v>
+      </c>
       <c r="E38" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19.809999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5">
+        <v>11.03</v>
+      </c>
       <c r="E39" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11.03</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="5">
+        <v>81.34</v>
+      </c>
       <c r="E40" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>162.68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4</v>
+      </c>
+      <c r="D41" s="5">
+        <v>38.590000000000003</v>
+      </c>
       <c r="E41" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>154.36000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2</v>
+      </c>
+      <c r="D42" s="5">
+        <v>16.5</v>
+      </c>
       <c r="E42" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="5">
+        <v>3.65</v>
+      </c>
       <c r="E43" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>PRODUCT(C43*D43)</f>
+        <v>3.65</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="5">
+        <v>7.94</v>
+      </c>
       <c r="E44" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="5">
+        <v>16.309999999999999</v>
+      </c>
       <c r="E45" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16.309999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="1">
+        <v>10</v>
+      </c>
+      <c r="D46" s="5">
+        <v>2.84</v>
+      </c>
       <c r="E46" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="1">
+        <v>10</v>
+      </c>
+      <c r="D47" s="5">
+        <v>1.5</v>
+      </c>
       <c r="E47" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="1">
+        <v>3</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1.37</v>
+      </c>
       <c r="E48" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2</v>
+      </c>
+      <c r="D49" s="5">
+        <v>4.18</v>
+      </c>
       <c r="E49" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+        <v>8.36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="1">
+        <v>7</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="E50" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+        <v>3.9899999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="5">
+        <v>6.98</v>
+      </c>
       <c r="E51" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+        <v>6.98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="1">
+        <v>4</v>
+      </c>
+      <c r="D52" s="5">
+        <v>4.4800000000000004</v>
+      </c>
       <c r="E52" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+        <v>17.920000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="1">
+        <v>4</v>
+      </c>
+      <c r="D53" s="5">
+        <v>5.29</v>
+      </c>
       <c r="E53" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+        <v>21.16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="5">
+        <v>6.51</v>
+      </c>
       <c r="E54" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="5">
+        <v>7.37</v>
+      </c>
       <c r="E55" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
+        <v>7.37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="5">
+        <v>16.04</v>
+      </c>
       <c r="E56" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
+        <v>16.04</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2</v>
+      </c>
+      <c r="D57" s="5">
+        <v>4.6100000000000003</v>
+      </c>
       <c r="E57" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
+        <v>9.2200000000000006</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="5">
+        <v>23.84</v>
+      </c>
       <c r="E58" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
+        <v>23.84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1">
+        <v>12.84</v>
+      </c>
       <c r="E59" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
+        <v>12.84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="1">
+        <v>2</v>
+      </c>
+      <c r="D60" s="5">
+        <v>11.86</v>
+      </c>
       <c r="E60" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
+        <v>23.72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="5">
+        <v>53.38</v>
+      </c>
       <c r="E61" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
+        <v>53.38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E62" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E63" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E64" s="1">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/Inventory CSVs/TRUE BOM.xlsx
+++ b/Inventory CSVs/TRUE BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Exlterra CAD 02\Documents\GitHub\pjbrich.github.io\Inventory CSVs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ\Documents\GitHub\pjbrich.github.io\Inventory CSVs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AC3151-6859-42F0-B3B8-EC2866700703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4D2106-BD97-4439-B88C-08BA8184E9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A4F45E7A-80B9-489A-ADC9-B093947A0154}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="14595" xr2:uid="{A4F45E7A-80B9-489A-ADC9-B093947A0154}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="140">
   <si>
     <t>Part Description</t>
   </si>
@@ -411,6 +411,62 @@
   </si>
   <si>
     <t>Size 20 JIC Union Tee</t>
+  </si>
+  <si>
+    <t>White Motor - RE Series - 45.6CID, Wheel Mount Flange, 7/8 Oring Ports, 1.25" Tapered Shaft (CW)</t>
+  </si>
+  <si>
+    <t>506750W3122AAAAA</t>
+  </si>
+  <si>
+    <t>VLV,FLOW DIV,20-40GPM,50/50,#12SAE</t>
+  </si>
+  <si>
+    <t>SN-FDA-00-5040-S</t>
+  </si>
+  <si>
+    <t>SDCF120TM184LS
+(Hazl Drive Motor
+Controllers)</t>
+  </si>
+  <si>
+    <t>Brand - Valve - SDCF Series - #12 SAE
+In/Out, #10 SAE Work, Tandem
+Metering, 0-18 GPM, Lever Handle,
+Spring</t>
+  </si>
+  <si>
+    <t>VLV,3SPL,4W3P SPRG CTR,ALL SPL</t>
+  </si>
+  <si>
+    <t>RD532CCCAAA5A4B
+1 (.)</t>
+  </si>
+  <si>
+    <t>VLV,BALL,#16SAE,5145 PSI MAX</t>
+  </si>
+  <si>
+    <t>DE3L-16 SAE (Hazl)</t>
+  </si>
+  <si>
+    <t>Valve Assembly - Dual Counterbalance -
+10:1 Pilot Ratio - Set at 3045 PSI #8 SAE
+Ports 16gpm/60lpm</t>
+  </si>
+  <si>
+    <t>FFP10006 (Hazl
+FFP10006)</t>
+  </si>
+  <si>
+    <t>CYL,WELDED,2 X 12,#8SAE,CLVS ENDS
+x1 in VSB</t>
+  </si>
+  <si>
+    <t>WWCL2012-S (Hazl
+Mast Cylinder)</t>
+  </si>
+  <si>
+    <t>VERIFY</t>
   </si>
 </sst>
 </file>
@@ -456,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -477,6 +533,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -813,22 +870,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1630A1A9-63A0-484D-B494-8E184F006C0E}">
   <dimension ref="A1:G200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.59765625" style="4" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.86328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.73046875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.86328125" style="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -851,7 +908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -870,10 +927,10 @@
       </c>
       <c r="G2" s="7">
         <f>SUM(E2:E1000)</f>
-        <v>1234.7299999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2889.7599999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,7 +948,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -909,7 +966,7 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -927,7 +984,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -945,7 +1002,7 @@
         <v>7.9799999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -963,7 +1020,7 @@
         <v>3.8000000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -981,7 +1038,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -999,7 +1056,7 @@
         <v>8.42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1017,7 +1074,7 @@
         <v>20.64</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -1035,7 +1092,7 @@
         <v>10.56</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -1053,7 +1110,7 @@
         <v>8.26</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -1071,7 +1128,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -1089,7 +1146,7 @@
         <v>54.24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -1107,7 +1164,7 @@
         <v>5.36</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -1125,7 +1182,7 @@
         <v>41.519999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -1143,7 +1200,7 @@
         <v>19.440000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -1161,7 +1218,7 @@
         <v>8.6199999999999992</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -1179,7 +1236,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
@@ -1197,7 +1254,7 @@
         <v>2.3000000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
         <v>44</v>
       </c>
@@ -1215,7 +1272,7 @@
         <v>60.26</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>47</v>
       </c>
@@ -1233,7 +1290,7 @@
         <v>6.68</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -1251,7 +1308,7 @@
         <v>14.14</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
@@ -1269,7 +1326,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -1287,7 +1344,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
@@ -1305,7 +1362,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>57</v>
       </c>
@@ -1323,7 +1380,7 @@
         <v>4.96</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>59</v>
       </c>
@@ -1341,7 +1398,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -1359,7 +1416,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A30" s="6" t="s">
         <v>63</v>
       </c>
@@ -1377,7 +1434,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>65</v>
       </c>
@@ -1395,7 +1452,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>67</v>
       </c>
@@ -1413,7 +1470,7 @@
         <v>9.0500000000000007</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>69</v>
       </c>
@@ -1431,7 +1488,7 @@
         <v>20.950000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>71</v>
       </c>
@@ -1449,7 +1506,7 @@
         <v>16.169999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>72</v>
       </c>
@@ -1467,7 +1524,7 @@
         <v>4.41</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A36" s="6" t="s">
         <v>74</v>
       </c>
@@ -1485,7 +1542,7 @@
         <v>100.76</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>76</v>
       </c>
@@ -1503,7 +1560,7 @@
         <v>15.48</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>78</v>
       </c>
@@ -1521,7 +1578,7 @@
         <v>19.809999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>80</v>
       </c>
@@ -1539,7 +1596,7 @@
         <v>11.03</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A40" s="6" t="s">
         <v>82</v>
       </c>
@@ -1557,7 +1614,7 @@
         <v>162.68</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>84</v>
       </c>
@@ -1575,7 +1632,7 @@
         <v>154.36000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="6" t="s">
         <v>86</v>
       </c>
@@ -1593,7 +1650,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>88</v>
       </c>
@@ -1611,7 +1668,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="6" t="s">
         <v>90</v>
       </c>
@@ -1629,7 +1686,7 @@
         <v>7.94</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>92</v>
       </c>
@@ -1647,7 +1704,7 @@
         <v>16.309999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>96</v>
       </c>
@@ -1665,7 +1722,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>95</v>
       </c>
@@ -1683,7 +1740,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>98</v>
       </c>
@@ -1701,7 +1758,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>100</v>
       </c>
@@ -1719,7 +1776,7 @@
         <v>8.36</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>101</v>
       </c>
@@ -1737,7 +1794,7 @@
         <v>3.9899999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>104</v>
       </c>
@@ -1755,7 +1812,7 @@
         <v>6.98</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>106</v>
       </c>
@@ -1773,7 +1830,7 @@
         <v>17.920000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>108</v>
       </c>
@@ -1791,7 +1848,7 @@
         <v>21.16</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>110</v>
       </c>
@@ -1809,7 +1866,7 @@
         <v>6.51</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>111</v>
       </c>
@@ -1827,7 +1884,7 @@
         <v>7.37</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" s="6" t="s">
         <v>114</v>
       </c>
@@ -1845,7 +1902,7 @@
         <v>16.04</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>116</v>
       </c>
@@ -1863,7 +1920,7 @@
         <v>9.2200000000000006</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="6" t="s">
         <v>118</v>
       </c>
@@ -1881,7 +1938,7 @@
         <v>23.84</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" s="6" t="s">
         <v>120</v>
       </c>
@@ -1899,7 +1956,7 @@
         <v>12.84</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>122</v>
       </c>
@@ -1917,7 +1974,7 @@
         <v>23.72</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>124</v>
       </c>
@@ -1935,835 +1992,905 @@
         <v>53.38</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E62" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E63" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A62" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A63" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A64" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" s="1">
+        <v>2</v>
+      </c>
+      <c r="D64" s="5">
+        <v>345.33</v>
+      </c>
       <c r="E64" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+        <v>690.66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A65" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="5">
+        <v>497.5</v>
+      </c>
       <c r="E65" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+        <v>497.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A66" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" s="1">
+        <v>2</v>
+      </c>
+      <c r="D66" s="5">
+        <v>88.77</v>
+      </c>
       <c r="E66" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+        <v>177.54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A67" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+      <c r="D67" s="5">
+        <v>143.35</v>
+      </c>
       <c r="E67" s="1">
         <f t="shared" ref="E67:E130" si="1">PRODUCT(C67*D67)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+        <v>143.35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A68" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="5">
+        <v>145.97999999999999</v>
+      </c>
       <c r="E68" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+        <v>145.97999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E69" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E70" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E71" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E72" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E73" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E74" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E75" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E76" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E77" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E78" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E79" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E80" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E81" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E82" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E83" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E84" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E85" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E86" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E87" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E88" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E89" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E90" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E91" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E92" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E93" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E94" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E95" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E96" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E97" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E98" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E99" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E100" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E101" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E102" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E103" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E104" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E105" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E106" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E107" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E108" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E109" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E110" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E111" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E112" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E113" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E114" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E115" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E116" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E117" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E118" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E119" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E120" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E121" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E122" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E123" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E124" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E125" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E126" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E127" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E128" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E129" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E130" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E131" s="1">
         <f t="shared" ref="E131:E194" si="2">PRODUCT(C131*D131)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E132" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E133" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E134" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E135" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E136" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E137" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E138" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E139" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E140" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E141" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E142" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E143" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E144" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E145" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E146" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E147" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E148" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E149" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E150" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E151" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E152" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E153" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E154" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E155" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E156" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E157" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E158" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E159" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E160" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E161" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E162" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E163" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E164" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E165" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E166" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E167" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E168" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E169" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E170" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E171" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E172" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E173" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E174" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E175" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E176" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E177" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E178" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E179" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E180" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E181" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E182" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E183" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E184" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E185" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E186" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E187" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E188" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E189" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E190" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E191" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E192" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E193" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E194" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E195" s="1">
         <f t="shared" ref="E195:E200" si="3">PRODUCT(C195*D195)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E196" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E197" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E198" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E199" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E200" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
